--- a/Tables/Table8_Real_Traits_Causals.xlsx
+++ b/Tables/Table8_Real_Traits_Causals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\Real_Traits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CD335F-B96D-4ED6-A43D-4438DE79044D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEB822D-5B3B-470E-AA2E-918BF30566F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="19">
   <si>
     <t>Trait</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,11 +83,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SNPs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNPs(5e-8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Admixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Homogeneous</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -111,7 +123,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,6 +133,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -137,9 +155,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,29 +439,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:D20"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="10.9140625" customWidth="1"/>
+    <col min="5" max="5" width="16.08203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -455,8 +481,11 @@
       <c r="D2">
         <v>260</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -469,8 +498,11 @@
       <c r="D3">
         <v>280</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -483,8 +515,11 @@
       <c r="D4">
         <v>268</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -497,8 +532,11 @@
       <c r="D5" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -511,8 +549,11 @@
       <c r="D6" s="1">
         <v>84</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -525,50 +566,62 @@
       <c r="D7" s="1">
         <v>83</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="D8">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" s="1">
+        <v>110</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
-      <c r="D9">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D9" s="1">
+        <v>132</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="D10">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D10" s="1">
+        <v>136</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -581,8 +634,11 @@
       <c r="D11" s="1">
         <v>222</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -595,8 +651,11 @@
       <c r="D12" s="1">
         <v>216</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -609,8 +668,11 @@
       <c r="D13" s="1">
         <v>210</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -623,8 +685,11 @@
       <c r="D14">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -637,8 +702,11 @@
       <c r="D15">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -651,8 +719,11 @@
       <c r="D16">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -665,8 +736,11 @@
       <c r="D17" s="1">
         <v>796</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -679,8 +753,11 @@
       <c r="D18" s="1">
         <v>194</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -693,8 +770,11 @@
       <c r="D19" s="1">
         <v>195</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -707,8 +787,11 @@
       <c r="D20">
         <v>228</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -721,8 +804,11 @@
       <c r="D21">
         <v>193</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -734,6 +820,417 @@
       </c>
       <c r="D22">
         <v>188</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2">
+        <v>153</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>260</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>280</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>268</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1">
+        <v>80</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1">
+        <v>84</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="1">
+        <v>83</v>
+      </c>
+      <c r="E31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="1">
+        <v>110</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="1">
+        <v>132</v>
+      </c>
+      <c r="E33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="1">
+        <v>136</v>
+      </c>
+      <c r="E34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="1">
+        <v>222</v>
+      </c>
+      <c r="E35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="1">
+        <v>216</v>
+      </c>
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="1">
+        <v>210</v>
+      </c>
+      <c r="E37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>42</v>
+      </c>
+      <c r="E38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>48</v>
+      </c>
+      <c r="E39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>60</v>
+      </c>
+      <c r="E40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="1">
+        <v>796</v>
+      </c>
+      <c r="E41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="1">
+        <v>194</v>
+      </c>
+      <c r="E42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="1">
+        <v>195</v>
+      </c>
+      <c r="E43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>228</v>
+      </c>
+      <c r="E44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>193</v>
+      </c>
+      <c r="E45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>188</v>
+      </c>
+      <c r="E46" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Table8_Real_Traits_Causals.xlsx
+++ b/Tables/Table8_Real_Traits_Causals.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\Real_Traits\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEB822D-5B3B-470E-AA2E-918BF30566F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BC9ED2-D1B1-4256-92BC-97A509C659B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="18">
   <si>
     <t>Trait</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,10 +60,6 @@
   </si>
   <si>
     <t>Bilirubin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binary</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -442,7 +438,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -456,16 +452,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -482,7 +478,7 @@
         <v>260</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -499,7 +495,7 @@
         <v>280</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -516,7 +512,7 @@
         <v>268</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -533,7 +529,7 @@
         <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -550,7 +546,7 @@
         <v>84</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -567,7 +563,7 @@
         <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -584,7 +580,7 @@
         <v>110</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -601,7 +597,7 @@
         <v>132</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -618,12 +614,12 @@
         <v>136</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>3</v>
@@ -635,12 +631,12 @@
         <v>222</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>3</v>
@@ -652,12 +648,12 @@
         <v>216</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>3</v>
@@ -669,12 +665,12 @@
         <v>210</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -686,12 +682,12 @@
         <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -703,12 +699,12 @@
         <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -720,12 +716,12 @@
         <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>3</v>
@@ -737,12 +733,12 @@
         <v>796</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>3</v>
@@ -754,12 +750,12 @@
         <v>194</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>3</v>
@@ -771,12 +767,12 @@
         <v>195</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -788,12 +784,12 @@
         <v>228</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -805,12 +801,12 @@
         <v>193</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -822,58 +818,58 @@
         <v>188</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="2">
-        <v>153</v>
+        <v>796</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="2">
-        <v>14</v>
+        <v>782</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="2">
-        <v>14</v>
+        <v>685</v>
       </c>
       <c r="E25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -890,7 +886,7 @@
         <v>260</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -907,7 +903,7 @@
         <v>280</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -924,7 +920,7 @@
         <v>268</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -941,7 +937,7 @@
         <v>80</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -958,7 +954,7 @@
         <v>84</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -975,7 +971,7 @@
         <v>83</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -992,7 +988,7 @@
         <v>110</v>
       </c>
       <c r="E32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1009,7 +1005,7 @@
         <v>132</v>
       </c>
       <c r="E33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1026,12 +1022,12 @@
         <v>136</v>
       </c>
       <c r="E34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>3</v>
@@ -1043,12 +1039,12 @@
         <v>222</v>
       </c>
       <c r="E35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>3</v>
@@ -1060,12 +1056,12 @@
         <v>216</v>
       </c>
       <c r="E36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>3</v>
@@ -1077,12 +1073,12 @@
         <v>210</v>
       </c>
       <c r="E37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -1094,12 +1090,12 @@
         <v>42</v>
       </c>
       <c r="E38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -1111,12 +1107,12 @@
         <v>48</v>
       </c>
       <c r="E39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -1128,12 +1124,12 @@
         <v>60</v>
       </c>
       <c r="E40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>3</v>
@@ -1145,12 +1141,12 @@
         <v>796</v>
       </c>
       <c r="E41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>3</v>
@@ -1162,12 +1158,12 @@
         <v>194</v>
       </c>
       <c r="E42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>3</v>
@@ -1179,12 +1175,12 @@
         <v>195</v>
       </c>
       <c r="E43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
@@ -1196,12 +1192,12 @@
         <v>228</v>
       </c>
       <c r="E44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -1213,12 +1209,12 @@
         <v>193</v>
       </c>
       <c r="E45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -1230,7 +1226,7 @@
         <v>188</v>
       </c>
       <c r="E46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Table8_Real_Traits_Causals.xlsx
+++ b/Tables/Table8_Real_Traits_Causals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BC9ED2-D1B1-4256-92BC-97A509C659B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9AD1D9-C865-4F9B-ADBF-45C9E4DE1B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -438,7 +438,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -475,7 +475,7 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -492,7 +492,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -509,7 +509,7 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -526,7 +526,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="1">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -543,7 +543,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -560,7 +560,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -576,7 +576,7 @@
       <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>110</v>
       </c>
       <c r="E8" t="s">
@@ -593,8 +593,8 @@
       <c r="C9" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="1">
-        <v>132</v>
+      <c r="D9">
+        <v>135</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
@@ -610,8 +610,8 @@
       <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="1">
-        <v>136</v>
+      <c r="D10">
+        <v>138</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -628,7 +628,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="1">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -645,7 +645,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="1">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
@@ -662,7 +662,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="1">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
@@ -679,7 +679,7 @@
         <v>6</v>
       </c>
       <c r="D14">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
@@ -696,7 +696,7 @@
         <v>4</v>
       </c>
       <c r="D15">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
         <v>16</v>
@@ -713,7 +713,7 @@
         <v>5</v>
       </c>
       <c r="D16">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
@@ -747,7 +747,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="1">
-        <v>194</v>
+        <v>782</v>
       </c>
       <c r="E18" t="s">
         <v>16</v>
@@ -764,7 +764,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="1">
-        <v>195</v>
+        <v>685</v>
       </c>
       <c r="E19" t="s">
         <v>16</v>
@@ -781,7 +781,7 @@
         <v>6</v>
       </c>
       <c r="D20">
-        <v>228</v>
+        <v>266</v>
       </c>
       <c r="E20" t="s">
         <v>16</v>
@@ -798,7 +798,7 @@
         <v>4</v>
       </c>
       <c r="D21">
-        <v>193</v>
+        <v>274</v>
       </c>
       <c r="E21" t="s">
         <v>16</v>
@@ -815,7 +815,7 @@
         <v>5</v>
       </c>
       <c r="D22">
-        <v>188</v>
+        <v>277</v>
       </c>
       <c r="E22" t="s">
         <v>16</v>

--- a/Tables/Table8_Real_Traits_Causals.xlsx
+++ b/Tables/Table8_Real_Traits_Causals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9AD1D9-C865-4F9B-ADBF-45C9E4DE1B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68AFB6B-4494-4E19-B819-617A06D1E357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="17">
   <si>
     <t>Trait</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,10 +92,6 @@
   </si>
   <si>
     <t>Admixed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Homogeneous</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -822,412 +818,85 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="2">
-        <v>796</v>
-      </c>
-      <c r="E23" t="s">
-        <v>16</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="2">
-        <v>782</v>
-      </c>
-      <c r="E24" t="s">
-        <v>16</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="2">
-        <v>685</v>
-      </c>
-      <c r="E25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26">
-        <v>260</v>
-      </c>
-      <c r="E26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27">
-        <v>280</v>
-      </c>
-      <c r="E27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28">
-        <v>268</v>
-      </c>
-      <c r="E28" t="s">
-        <v>17</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="1">
-        <v>80</v>
-      </c>
-      <c r="E29" t="s">
-        <v>17</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="1">
-        <v>84</v>
-      </c>
-      <c r="E30" t="s">
-        <v>17</v>
-      </c>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="1">
-        <v>83</v>
-      </c>
-      <c r="E31" t="s">
-        <v>17</v>
-      </c>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="1">
-        <v>110</v>
-      </c>
-      <c r="E32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="1">
-        <v>132</v>
-      </c>
-      <c r="E33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="1">
-        <v>136</v>
-      </c>
-      <c r="E34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="1">
-        <v>222</v>
-      </c>
-      <c r="E35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="1">
-        <v>216</v>
-      </c>
-      <c r="E36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="1">
-        <v>210</v>
-      </c>
-      <c r="E37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38">
-        <v>42</v>
-      </c>
-      <c r="E38" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39">
-        <v>48</v>
-      </c>
-      <c r="E39" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40">
-        <v>60</v>
-      </c>
-      <c r="E40" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="1">
-        <v>796</v>
-      </c>
-      <c r="E41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="1">
-        <v>194</v>
-      </c>
-      <c r="E42" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="1">
-        <v>195</v>
-      </c>
-      <c r="E43" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44">
-        <v>228</v>
-      </c>
-      <c r="E44" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45">
-        <v>193</v>
-      </c>
-      <c r="E45" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46">
-        <v>188</v>
-      </c>
-      <c r="E46" t="s">
-        <v>17</v>
-      </c>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
